--- a/NETBoardLists.xlsx
+++ b/NETBoardLists.xlsx
@@ -20,102 +20,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <x:si>
-    <x:t>62b61d383757c9306ea02b53</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <x:si>
+    <x:t>62b6857248c19f7c8b46ebf3</x:t>
   </x:si>
   <x:si>
     <x:t>Week 1</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d38b6271763816ca8df</x:t>
+    <x:t>62b68570affd15341d40cf22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62b6856e9bc5355be91c56bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62b6856cc0052979cfd086dd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62b67a3b2be36f4542da6bcb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62b67a3baaaf838f4daaceb0</x:t>
   </x:si>
   <x:si>
     <x:t>Week 2</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d379107a64803f640f4</x:t>
+    <x:t>62b67a3a2203915bd0454b2f</x:t>
   </x:si>
   <x:si>
     <x:t>Week 3</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d37fe821e871f4ce17e</x:t>
+    <x:t>62b67a3a4512494794b52d86</x:t>
   </x:si>
   <x:si>
     <x:t>Week 4</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d37a362dd41286b4cdc</x:t>
+    <x:t>62b67a3a9d5f007785c4056f</x:t>
   </x:si>
   <x:si>
     <x:t>Week 5</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d3628804a6244c3e083</x:t>
+    <x:t>62b67a399d4dca039dc1a56f</x:t>
   </x:si>
   <x:si>
     <x:t>Week 6</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d360c7a6a52c116547f</x:t>
+    <x:t>62b67a3981ba16144fecfc34</x:t>
   </x:si>
   <x:si>
     <x:t>Week 7</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d367eee2164200fd227</x:t>
+    <x:t>62b67a395e18168c34b79d8b</x:t>
   </x:si>
   <x:si>
     <x:t>Week 8</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d35512e44353b8ff302</x:t>
+    <x:t>62b67a3814716f4f28fe2431</x:t>
   </x:si>
   <x:si>
     <x:t>Week 9</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d35bbb5a08d7d741e96</x:t>
+    <x:t>62b67a3810ce2a19b86075d4</x:t>
   </x:si>
   <x:si>
     <x:t>Week 10</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d358ebbd85310b9dfc6</x:t>
+    <x:t>62b67a38e7c29b8ec3dc7d1b</x:t>
   </x:si>
   <x:si>
     <x:t>Week 11</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d3536de6757292e059a</x:t>
+    <x:t>62b67a3821622e7ae813dbef</x:t>
   </x:si>
   <x:si>
     <x:t>Week 12</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d32405e9853d19a5c91</x:t>
+    <x:t>62b67a354ca480872e59caea</x:t>
   </x:si>
   <x:si>
     <x:t>To Do</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d32405e9853d19a5c92</x:t>
+    <x:t>62b67a354ca480872e59caeb</x:t>
   </x:si>
   <x:si>
     <x:t>Doing</x:t>
   </x:si>
   <x:si>
-    <x:t>62b61d32405e9853d19a5c93</x:t>
+    <x:t>62b67a354ca480872e59caec</x:t>
   </x:si>
   <x:si>
     <x:t>Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62b6147ac4f5e68c41a72ec0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62b6147ac4f5e68c41a72ec1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -515,7 +521,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="20.773281" defaultRowHeight="12.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="31.432656" defaultRowHeight="12.8" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:2"/>
     <x:row r="2" spans="1:2">
@@ -531,116 +537,116 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
         <x:v>27</x:v>
@@ -648,10 +654,26 @@
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
         <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/NETBoardLists.xlsx
+++ b/NETBoardLists.xlsx
@@ -22,106 +22,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <x:si>
-    <x:t>62b6857248c19f7c8b46ebf3</x:t>
+    <x:t>62b749f062cf8550b9e26615</x:t>
   </x:si>
   <x:si>
     <x:t>Week 1</x:t>
   </x:si>
   <x:si>
-    <x:t>62b68570affd15341d40cf22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62b6856e9bc5355be91c56bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62b6856cc0052979cfd086dd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62b67a3b2be36f4542da6bcb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62b67a3baaaf838f4daaceb0</x:t>
+    <x:t>62b749f05edb73704692c060</x:t>
   </x:si>
   <x:si>
     <x:t>Week 2</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a3a2203915bd0454b2f</x:t>
+    <x:t>62b749ef78d93715be494714</x:t>
   </x:si>
   <x:si>
     <x:t>Week 3</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a3a4512494794b52d86</x:t>
+    <x:t>62b749ef5232c4731e47af72</x:t>
   </x:si>
   <x:si>
     <x:t>Week 4</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a3a9d5f007785c4056f</x:t>
+    <x:t>62b749efd05d0654aafb4265</x:t>
   </x:si>
   <x:si>
     <x:t>Week 5</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a399d4dca039dc1a56f</x:t>
+    <x:t>62b749ee235be5803200985c</x:t>
   </x:si>
   <x:si>
     <x:t>Week 6</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a3981ba16144fecfc34</x:t>
+    <x:t>62b749eef91335449c81cc08</x:t>
   </x:si>
   <x:si>
     <x:t>Week 7</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a395e18168c34b79d8b</x:t>
+    <x:t>62b749ee6434c81f1230a5c6</x:t>
   </x:si>
   <x:si>
     <x:t>Week 8</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a3814716f4f28fe2431</x:t>
+    <x:t>62b749edffe41d7dbc651726</x:t>
   </x:si>
   <x:si>
     <x:t>Week 9</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a3810ce2a19b86075d4</x:t>
+    <x:t>62b749ede9a4c7127210fecc</x:t>
   </x:si>
   <x:si>
     <x:t>Week 10</x:t>
   </x:si>
   <x:si>
-    <x:t>62b67a38e7c29b8ec3dc7d1b</x:t>
+    <x:t>62b749ec7c9e9a75aeb88e25</x:t>
   </x:si>
   <x:si>
     <x:t>Week 11</x:t>
   </x:si>
   <x:si>
+    <x:t>62b749ecfe821e871fb73dca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62b749e90180a45fe5082121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62b749e90180a45fe5082122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Doing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62b749e90180a45fe5082123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Done</x:t>
+  </x:si>
+  <x:si>
     <x:t>62b67a3821622e7ae813dbef</x:t>
   </x:si>
   <x:si>
-    <x:t>Week 12</x:t>
-  </x:si>
-  <x:si>
     <x:t>62b67a354ca480872e59caea</x:t>
   </x:si>
   <x:si>
-    <x:t>To Do</x:t>
-  </x:si>
-  <x:si>
     <x:t>62b67a354ca480872e59caeb</x:t>
   </x:si>
   <x:si>
-    <x:t>Doing</x:t>
-  </x:si>
-  <x:si>
     <x:t>62b67a354ca480872e59caec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Done</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -521,7 +521,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="31.432656" defaultRowHeight="12.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="40.670781" defaultRowHeight="12.8" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:2"/>
     <x:row r="2" spans="1:2">
@@ -537,143 +537,143 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
